--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_12-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_12-34.xlsx
@@ -50,6 +50,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
@@ -68,10 +74,10 @@
     <t>0:3</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>TAVONIZA 20 MG 20 F.C.TABS.</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -740,17 +746,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -758,7 +764,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -772,7 +778,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -784,7 +790,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -792,13 +798,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -824,11 +830,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>31.359999999999999</v>
+        <v>39</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -836,7 +842,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -844,17 +850,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>80.75</v>
+        <v>31.359999999999999</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -870,13 +876,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>30</v>
+        <v>80.75</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -896,17 +902,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -914,7 +920,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -922,17 +928,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -940,7 +946,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -948,7 +954,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -958,41 +964,93 @@
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
+        <v>28</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>14</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c t="s" r="N15" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
+        <v>30</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c t="s" r="N16" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="26.25" customHeight="1">
-      <c r="K15" s="10">
-        <v>409.11000000000001</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="11">
-        <v>29</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c t="s" r="F16" s="12">
-        <v>30</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c t="s" r="I16" s="14">
+    <row r="17" ht="26.25" customHeight="1">
+      <c r="K17" s="10">
+        <v>610.11000000000001</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="11">
         <v>31</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c t="s" r="F18" s="12">
+        <v>32</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c t="s" r="I18" s="14">
+        <v>33</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="50">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1033,10 +1091,16 @@
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:N18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
